--- a/TileZoneTemplate.xlsx
+++ b/TileZoneTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA3E821-33C4-4E62-9CE5-2756496EA8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA7B480-F606-4BE4-8186-B568566E4267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,16 +432,17 @@
   <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -491,16 +492,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>12</v>
@@ -538,13 +539,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>12</v>
@@ -568,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -582,13 +583,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -626,13 +627,13 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>12</v>
@@ -658,13 +659,13 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>12</v>
@@ -687,16 +688,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>12</v>
@@ -713,16 +714,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>12</v>
@@ -742,13 +743,13 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>12</v>
@@ -768,13 +769,13 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>12</v>
@@ -794,13 +795,13 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>13</v>
@@ -820,13 +821,13 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>13</v>
@@ -843,16 +844,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>13</v>
@@ -872,13 +873,13 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -895,16 +896,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>13</v>
@@ -924,10 +925,10 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -950,10 +951,10 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -973,16 +974,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>14</v>
@@ -999,16 +1000,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>14</v>
@@ -1028,13 +1029,13 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>14</v>
@@ -1051,16 +1052,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>6</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>14</v>
@@ -1077,16 +1078,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>6</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>14</v>
@@ -1106,10 +1107,10 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>13</v>
@@ -1132,13 +1133,13 @@
         <v>8</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>14</v>
@@ -1155,16 +1156,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>14</v>
@@ -1181,16 +1182,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>14</v>
@@ -1216,7 +1217,7 @@
         <v>8</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>14</v>
@@ -1236,7 +1237,7 @@
         <v>8</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>14</v>
@@ -1253,7 +1254,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C29">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D29">
         <v>12</v>
@@ -1273,10 +1274,10 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>15</v>
@@ -1293,10 +1294,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>15</v>

--- a/TileZoneTemplate.xlsx
+++ b/TileZoneTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA7B480-F606-4BE4-8186-B568566E4267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F3EB0C-46DA-4D8A-9876-5273EE9AB42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,7 @@
         <v>3</v>
       </c>
       <c r="J4">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>17</v>
